--- a/genetic/direction_test/sae统计.xlsx
+++ b/genetic/direction_test/sae统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NewCodec\genetic\direction_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC4388-65D5-4616-92F6-D2B97F8962B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA9C3C-C73A-4F23-9DA2-42592CC696F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27285" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27285" yWindow="1620" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kitchen y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>256方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,19 +74,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>256方向 w=-2:0.05:2 sumw=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512方向 w=-2:0.05:2 sumw=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024方向 w=-2:0.05:2 sumw=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256方向 w1w2=-2:0.05:2</t>
+    <t>256方向 w1w2=linspace(-2,2,64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512方向 w1w2=linspace(-2,2,64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth y</t>
+  </si>
+  <si>
+    <t>256方向 w=linspace(-2,2,64) sumw=1 无round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256方向 w=linspace(-2,2,64) sumw=1 round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -446,10 +445,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>264</v>
@@ -463,10 +462,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>264</v>
@@ -480,13 +479,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -497,13 +496,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -514,13 +513,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -531,13 +530,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -548,13 +547,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -565,13 +564,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -582,13 +581,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -599,64 +598,61 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>21.73</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>21.73</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13">
         <v>4</v>
-      </c>
-      <c r="E13">
-        <v>21.73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -664,60 +660,22 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/genetic/direction_test/sae统计.xlsx
+++ b/genetic/direction_test/sae统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NewCodec\genetic\direction_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA9C3C-C73A-4F23-9DA2-42592CC696F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEFC086-BDAB-4F6D-8BCA-EEE8EA834E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27285" yWindow="1620" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>256方向 w1w2=linspace(-2,2,64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512方向 w1w2=linspace(-2,2,64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>earth y</t>
   </si>
   <si>
@@ -90,6 +82,50 @@
   </si>
   <si>
     <t>256方向 w=linspace(-2,2,64) sumw=1 round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256方向 w1w2=linspace(-2,2,64) round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256方向 w=linspace(-2,2,64) round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无round 36.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无round 22.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256方向 w1w2=-2:0.05:2 无round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256方向 w1w2=-2:0.05:2 round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约20%权重和不为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256方向 w1w2=linspace(-2,2,128) round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128方向 w1w2=linspace(-2,2,128) round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64方向 w1w2=linspace(-2,2,128) round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B1" activeCellId="4" sqref="B16:E16 B4:E6 B12:E12 B2:E2 B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -426,7 +462,7 @@
     <col min="3" max="3" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,9 +479,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -460,9 +496,9 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -477,9 +513,9 @@
         <v>43.59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -494,9 +530,9 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -511,9 +547,9 @@
         <v>21.91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -528,9 +564,9 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -545,9 +581,9 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -562,9 +598,9 @@
         <v>37.880000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -579,9 +615,9 @@
         <v>37.770000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -596,15 +632,15 @@
         <v>37.71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -613,15 +649,15 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -630,52 +666,132 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>21.49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>18.62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>34.19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
